--- a/PythonResources/Data/Consumption/Sympheny/futu_1569_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1569_coo.xlsx
@@ -16783,7 +16783,7 @@
         <v>2055</v>
       </c>
       <c r="B2055">
-        <v>5.373926407517624</v>
+        <v>5.373926407517623</v>
       </c>
     </row>
     <row r="2056" spans="1:2">
@@ -17735,7 +17735,7 @@
         <v>2174</v>
       </c>
       <c r="B2174">
-        <v>4.016538584853738</v>
+        <v>4.016538584853737</v>
       </c>
     </row>
     <row r="2175" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>8.27641405310799</v>
+        <v>8.276414053107988</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17767,7 +17767,7 @@
         <v>2178</v>
       </c>
       <c r="B2178">
-        <v>6.94543193102749</v>
+        <v>6.945431931027489</v>
       </c>
     </row>
     <row r="2179" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>7.804628295070956</v>
+        <v>7.804628295070955</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>6.053089232511426</v>
+        <v>6.053089232511425</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>6.878611734212703</v>
+        <v>6.878611734212702</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20663,7 +20663,7 @@
         <v>2540</v>
       </c>
       <c r="B2540">
-        <v>22.71391401647412</v>
+        <v>22.71391401647411</v>
       </c>
     </row>
     <row r="2541" spans="1:2">
@@ -20943,7 +20943,7 @@
         <v>2575</v>
       </c>
       <c r="B2575">
-        <v>7.198000552145837</v>
+        <v>7.198000552145836</v>
       </c>
     </row>
     <row r="2576" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>18.02931999899184</v>
+        <v>18.02931999899183</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>7.688542856657198</v>
+        <v>7.688542856657197</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21759,7 +21759,7 @@
         <v>2677</v>
       </c>
       <c r="B2677">
-        <v>4.868613322657733</v>
+        <v>4.868613322657732</v>
       </c>
     </row>
     <row r="2678" spans="1:2">
@@ -21767,7 +21767,7 @@
         <v>2678</v>
       </c>
       <c r="B2678">
-        <v>8.577779002163451</v>
+        <v>8.577779002163449</v>
       </c>
     </row>
     <row r="2679" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>6.37959967668403</v>
+        <v>6.379599676684029</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>27.01871727495515</v>
+        <v>27.01871727495514</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -21991,7 +21991,7 @@
         <v>2706</v>
       </c>
       <c r="B2706">
-        <v>26.0429372517322</v>
+        <v>26.04293725173219</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>37.49257797594591</v>
+        <v>37.4925779759459</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>16.28120986758465</v>
+        <v>16.28120986758464</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22767,7 +22767,7 @@
         <v>2803</v>
       </c>
       <c r="B2803">
-        <v>34.49387510836302</v>
+        <v>34.49387510836301</v>
       </c>
     </row>
     <row r="2804" spans="1:2">
@@ -22895,7 +22895,7 @@
         <v>2819</v>
       </c>
       <c r="B2819">
-        <v>7.478117850898352</v>
+        <v>7.478117850898351</v>
       </c>
     </row>
     <row r="2820" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>6.511393722770038</v>
+        <v>6.511393722770037</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23327,7 +23327,7 @@
         <v>2873</v>
       </c>
       <c r="B2873">
-        <v>7.217577697528416</v>
+        <v>7.217577697528415</v>
       </c>
     </row>
     <row r="2874" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>5.863999798367126</v>
+        <v>5.863999798367125</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>2.968545857704633</v>
+        <v>2.968545857704632</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23487,7 +23487,7 @@
         <v>2893</v>
       </c>
       <c r="B2893">
-        <v>6.482174540215501</v>
+        <v>6.4821745402155</v>
       </c>
     </row>
     <row r="2894" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>14.29887736207931</v>
+        <v>14.2988773620793</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23887,7 +23887,7 @@
         <v>2943</v>
       </c>
       <c r="B2943">
-        <v>29.65029005240697</v>
+        <v>29.65029005240696</v>
       </c>
     </row>
     <row r="2944" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>6.855400507950725</v>
+        <v>6.855400507950724</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24295,7 +24295,7 @@
         <v>2994</v>
       </c>
       <c r="B2994">
-        <v>59.39758661861084</v>
+        <v>59.39758661861083</v>
       </c>
     </row>
     <row r="2995" spans="1:2">
@@ -24303,7 +24303,7 @@
         <v>2995</v>
       </c>
       <c r="B2995">
-        <v>57.81265844153028</v>
+        <v>57.81265844153027</v>
       </c>
     </row>
     <row r="2996" spans="1:2">
@@ -24423,7 +24423,7 @@
         <v>3010</v>
       </c>
       <c r="B3010">
-        <v>36.55006151561102</v>
+        <v>36.55006151561101</v>
       </c>
     </row>
     <row r="3011" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>55.5683204274617</v>
+        <v>55.56832042746169</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>46.20323538703841</v>
+        <v>46.2032353870384</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>38.38175550724443</v>
+        <v>38.38175550724442</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>3.882810269912566</v>
+        <v>3.882810269912565</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>20.10555246528428</v>
+        <v>20.10555246528427</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25055,7 +25055,7 @@
         <v>3089</v>
       </c>
       <c r="B3089">
-        <v>21.2938969128483</v>
+        <v>21.29389691284829</v>
       </c>
     </row>
     <row r="3090" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>9.942581522105471</v>
+        <v>9.942581522105469</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>14.7143641735895</v>
+        <v>14.71436417358949</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>8.812059990469331</v>
+        <v>8.812059990469329</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25799,7 +25799,7 @@
         <v>3182</v>
       </c>
       <c r="B3182">
-        <v>13.99915361084035</v>
+        <v>13.99915361084034</v>
       </c>
     </row>
     <row r="3183" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>20.13485956915041</v>
+        <v>20.1348595691504</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>43.64267372225424</v>
+        <v>43.64267372225423</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -26919,7 +26919,7 @@
         <v>3322</v>
       </c>
       <c r="B3322">
-        <v>25.9842644297922</v>
+        <v>25.98426442979219</v>
       </c>
     </row>
     <row r="3323" spans="1:2">
@@ -26967,7 +26967,7 @@
         <v>3328</v>
       </c>
       <c r="B3328">
-        <v>42.2441387257623</v>
+        <v>42.24413872576229</v>
       </c>
     </row>
     <row r="3329" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>28.77594191566471</v>
+        <v>28.7759419156647</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27183,7 +27183,7 @@
         <v>3355</v>
       </c>
       <c r="B3355">
-        <v>27.63519220477929</v>
+        <v>27.63519220477928</v>
       </c>
     </row>
     <row r="3356" spans="1:2">
@@ -27375,7 +27375,7 @@
         <v>3379</v>
       </c>
       <c r="B3379">
-        <v>38.49898392270897</v>
+        <v>38.49898392270896</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>34.641875982887</v>
+        <v>34.64187598288699</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27711,7 +27711,7 @@
         <v>3421</v>
       </c>
       <c r="B3421">
-        <v>29.9624107085813</v>
+        <v>29.96241070858129</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -27903,7 +27903,7 @@
         <v>3445</v>
       </c>
       <c r="B3445">
-        <v>11.51561101501638</v>
+        <v>11.51561101501637</v>
       </c>
     </row>
     <row r="3446" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>39.51037207712927</v>
+        <v>39.51037207712926</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -28439,7 +28439,7 @@
         <v>3512</v>
       </c>
       <c r="B3512">
-        <v>43.3419828365877</v>
+        <v>43.34198283658769</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -28807,7 +28807,7 @@
         <v>3558</v>
       </c>
       <c r="B3558">
-        <v>52.66134879497982</v>
+        <v>52.66134879497981</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>62.8013136616237</v>
+        <v>62.80131366162369</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28895,7 +28895,7 @@
         <v>3569</v>
       </c>
       <c r="B3569">
-        <v>63.29308686449744</v>
+        <v>63.29308686449743</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -28927,7 +28927,7 @@
         <v>3573</v>
       </c>
       <c r="B3573">
-        <v>48.45548631915085</v>
+        <v>48.45548631915084</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -29079,7 +29079,7 @@
         <v>3592</v>
       </c>
       <c r="B3592">
-        <v>50.38125611419455</v>
+        <v>50.38125611419454</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>50.89325121873592</v>
+        <v>50.89325121873591</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29111,7 +29111,7 @@
         <v>3596</v>
       </c>
       <c r="B3596">
-        <v>42.4094307915673</v>
+        <v>42.40943079156729</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -29175,7 +29175,7 @@
         <v>3604</v>
       </c>
       <c r="B3604">
-        <v>19.67010751604125</v>
+        <v>19.67010751604124</v>
       </c>
     </row>
     <row r="3605" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>3608</v>
       </c>
       <c r="B3608">
-        <v>29.32791190987949</v>
+        <v>29.32791190987948</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>38.72816547494214</v>
+        <v>38.72816547494213</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>49.68345397114189</v>
+        <v>49.68345397114188</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29287,7 +29287,7 @@
         <v>3618</v>
       </c>
       <c r="B3618">
-        <v>46.5672296170558</v>
+        <v>46.56722961705579</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>40.3919297614226</v>
+        <v>40.39192976142259</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29623,7 +29623,7 @@
         <v>3660</v>
       </c>
       <c r="B3660">
-        <v>50.48588247499665</v>
+        <v>50.48588247499664</v>
       </c>
     </row>
     <row r="3661" spans="1:2">
@@ -29831,7 +29831,7 @@
         <v>3686</v>
       </c>
       <c r="B3686">
-        <v>74.43007940466723</v>
+        <v>74.43007940466721</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -29847,7 +29847,7 @@
         <v>3688</v>
       </c>
       <c r="B3688">
-        <v>74.89635542717743</v>
+        <v>74.89635542717741</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -29887,7 +29887,7 @@
         <v>3693</v>
       </c>
       <c r="B3693">
-        <v>61.31573656664934</v>
+        <v>61.31573656664933</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -29943,7 +29943,7 @@
         <v>3700</v>
       </c>
       <c r="B3700">
-        <v>38.60859249116831</v>
+        <v>38.6085924911683</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>38.54235843643085</v>
+        <v>38.54235843643084</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30007,7 +30007,7 @@
         <v>3708</v>
       </c>
       <c r="B3708">
-        <v>65.43953915165314</v>
+        <v>65.43953915165312</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>70.43552114771309</v>
+        <v>70.43552114771308</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30183,7 +30183,7 @@
         <v>3730</v>
       </c>
       <c r="B3730">
-        <v>58.76308781990903</v>
+        <v>58.76308781990902</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>68.36643961476399</v>
+        <v>68.36643961476398</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>72.39147725973891</v>
+        <v>72.39147725973889</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30271,7 +30271,7 @@
         <v>3741</v>
       </c>
       <c r="B3741">
-        <v>60.54144288250607</v>
+        <v>60.54144288250606</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>36.47620761386836</v>
+        <v>36.47620761386835</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>54.75065222959655</v>
+        <v>54.75065222959654</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30631,7 +30631,7 @@
         <v>3786</v>
       </c>
       <c r="B3786">
-        <v>63.23183501741722</v>
+        <v>63.23183501741721</v>
       </c>
     </row>
     <row r="3787" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>55.41768191358977</v>
+        <v>55.41768191358976</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -30967,7 +30967,7 @@
         <v>3828</v>
       </c>
       <c r="B3828">
-        <v>49.82324885658335</v>
+        <v>49.82324885658334</v>
       </c>
     </row>
     <row r="3829" spans="1:2">
@@ -31007,7 +31007,7 @@
         <v>3833</v>
       </c>
       <c r="B3833">
-        <v>58.74550355758935</v>
+        <v>58.74550355758934</v>
       </c>
     </row>
     <row r="3834" spans="1:2">
@@ -31031,7 +31031,7 @@
         <v>3836</v>
       </c>
       <c r="B3836">
-        <v>51.25021174382544</v>
+        <v>51.25021174382543</v>
       </c>
     </row>
     <row r="3837" spans="1:2">
@@ -31167,7 +31167,7 @@
         <v>3853</v>
       </c>
       <c r="B3853">
-        <v>49.67554105309803</v>
+        <v>49.67554105309802</v>
       </c>
     </row>
     <row r="3854" spans="1:2">
@@ -31175,7 +31175,7 @@
         <v>3854</v>
       </c>
       <c r="B3854">
-        <v>53.4461930365149</v>
+        <v>53.44619303651489</v>
       </c>
     </row>
     <row r="3855" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>44.09341697971539</v>
+        <v>44.09341697971538</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>51.00549742654322</v>
+        <v>51.00549742654321</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31391,7 +31391,7 @@
         <v>3881</v>
       </c>
       <c r="B3881">
-        <v>57.52251811325555</v>
+        <v>57.52251811325554</v>
       </c>
     </row>
     <row r="3882" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>52.14935369043845</v>
+        <v>52.14935369043844</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>58.4395373932269</v>
+        <v>58.43953739322689</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31599,7 +31599,7 @@
         <v>3907</v>
       </c>
       <c r="B3907">
-        <v>53.96610105910013</v>
+        <v>53.96610105910012</v>
       </c>
     </row>
     <row r="3908" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>19.71922622212089</v>
+        <v>19.71922622212088</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31743,7 +31743,7 @@
         <v>3925</v>
       </c>
       <c r="B3925">
-        <v>37.40612201954081</v>
+        <v>37.4061220195408</v>
       </c>
     </row>
     <row r="3926" spans="1:2">
@@ -31807,7 +31807,7 @@
         <v>3933</v>
       </c>
       <c r="B3933">
-        <v>31.9928068644271</v>
+        <v>31.99280686442709</v>
       </c>
     </row>
     <row r="3934" spans="1:2">
@@ -31863,7 +31863,7 @@
         <v>3940</v>
       </c>
       <c r="B3940">
-        <v>5.372197288389523</v>
+        <v>5.372197288389522</v>
       </c>
     </row>
     <row r="3941" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>36.6851672644339</v>
+        <v>36.68516726443389</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>5.624677988196272</v>
+        <v>5.624677988196271</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>14.20735127670537</v>
+        <v>14.20735127670536</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>30.95592152964326</v>
+        <v>30.95592152964325</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>41.70371573047078</v>
+        <v>41.70371573047077</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>43.53804736145214</v>
+        <v>43.53804736145213</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32351,7 +32351,7 @@
         <v>4001</v>
       </c>
       <c r="B4001">
-        <v>42.87336224576821</v>
+        <v>42.8733622457682</v>
       </c>
     </row>
     <row r="4002" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>40.52967314959343</v>
+        <v>40.52967314959342</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32535,7 +32535,7 @@
         <v>4024</v>
       </c>
       <c r="B4024">
-        <v>49.46394376318454</v>
+        <v>49.46394376318453</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
@@ -32567,7 +32567,7 @@
         <v>4028</v>
       </c>
       <c r="B4028">
-        <v>43.7953637333968</v>
+        <v>43.79536373339679</v>
       </c>
     </row>
     <row r="4029" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>32.12468883182471</v>
+        <v>32.1246888318247</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>45.19155416157945</v>
+        <v>45.19155416157944</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>52.14935369043845</v>
+        <v>52.14935369043844</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32767,7 +32767,7 @@
         <v>4053</v>
       </c>
       <c r="B4053">
-        <v>46.55960977005061</v>
+        <v>46.5596097700506</v>
       </c>
     </row>
     <row r="4054" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>51.9556337338833</v>
+        <v>51.95563373388329</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>58.38883610353849</v>
+        <v>58.38883610353848</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>60.53646067484883</v>
+        <v>60.53646067484882</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33151,7 +33151,7 @@
         <v>4101</v>
       </c>
       <c r="B4101">
-        <v>53.77736331020222</v>
+        <v>53.77736331020221</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
@@ -33327,7 +33327,7 @@
         <v>4123</v>
       </c>
       <c r="B4123">
-        <v>57.25230661560979</v>
+        <v>57.25230661560978</v>
       </c>
     </row>
     <row r="4124" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>54.39867391216427</v>
+        <v>54.39867391216426</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33511,7 +33511,7 @@
         <v>4146</v>
       </c>
       <c r="B4146">
-        <v>61.0537310580861</v>
+        <v>61.05373105808609</v>
       </c>
     </row>
     <row r="4147" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>42.41705063857249</v>
+        <v>42.41705063857248</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33807,7 +33807,7 @@
         <v>4183</v>
       </c>
       <c r="B4183">
-        <v>16.28924001404397</v>
+        <v>16.28924001404396</v>
       </c>
     </row>
     <row r="4184" spans="1:2">
@@ -33823,7 +33823,7 @@
         <v>4185</v>
       </c>
       <c r="B4185">
-        <v>24.64150085195752</v>
+        <v>24.64150085195751</v>
       </c>
     </row>
     <row r="4186" spans="1:2">
@@ -33831,7 +33831,7 @@
         <v>4186</v>
       </c>
       <c r="B4186">
-        <v>28.65296930784241</v>
+        <v>28.6529693078424</v>
       </c>
     </row>
     <row r="4187" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>7.598892425930692</v>
+        <v>7.598892425930691</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34079,7 +34079,7 @@
         <v>4217</v>
       </c>
       <c r="B4217">
-        <v>48.45783088746014</v>
+        <v>48.45783088746013</v>
       </c>
     </row>
     <row r="4218" spans="1:2">
@@ -34103,7 +34103,7 @@
         <v>4220</v>
       </c>
       <c r="B4220">
-        <v>41.3115866807419</v>
+        <v>41.31158668074189</v>
       </c>
     </row>
     <row r="4221" spans="1:2">
@@ -34471,7 +34471,7 @@
         <v>4266</v>
       </c>
       <c r="B4266">
-        <v>76.2362762159371</v>
+        <v>76.23627621593708</v>
       </c>
     </row>
     <row r="4267" spans="1:2">
@@ -34479,7 +34479,7 @@
         <v>4267</v>
       </c>
       <c r="B4267">
-        <v>74.71025531762747</v>
+        <v>74.71025531762746</v>
       </c>
     </row>
     <row r="4268" spans="1:2">
@@ -34487,7 +34487,7 @@
         <v>4268</v>
       </c>
       <c r="B4268">
-        <v>71.71917229704978</v>
+        <v>71.71917229704977</v>
       </c>
     </row>
     <row r="4269" spans="1:2">
@@ -34655,7 +34655,7 @@
         <v>4289</v>
       </c>
       <c r="B4289">
-        <v>88.07751846201009</v>
+        <v>88.07751846201008</v>
       </c>
     </row>
     <row r="4290" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>83.36962529695424</v>
+        <v>83.36962529695423</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34783,7 +34783,7 @@
         <v>4305</v>
       </c>
       <c r="B4305">
-        <v>60.37322010631446</v>
+        <v>60.37322010631445</v>
       </c>
     </row>
     <row r="4306" spans="1:2">
@@ -34823,7 +34823,7 @@
         <v>4310</v>
       </c>
       <c r="B4310">
-        <v>81.26273760001783</v>
+        <v>81.26273760001781</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>56.48533970743305</v>
+        <v>56.48533970743304</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>79.35982734598971</v>
+        <v>79.3598273459897</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>55.96601782692515</v>
+        <v>55.96601782692514</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>71.00847502829602</v>
+        <v>71.008475028296</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35351,7 +35351,7 @@
         <v>4376</v>
       </c>
       <c r="B4376">
-        <v>54.1035513762323</v>
+        <v>54.10355137623229</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>63.55509237306068</v>
+        <v>63.55509237306067</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35527,7 +35527,7 @@
         <v>4398</v>
       </c>
       <c r="B4398">
-        <v>60.01391501291565</v>
+        <v>60.01391501291564</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>71.14094313777095</v>
+        <v>71.14094313777093</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>60.97694644595683</v>
+        <v>60.97694644595682</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>62.63778002205067</v>
+        <v>62.63778002205066</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>53.96317034871351</v>
+        <v>53.9631703487135</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36383,7 +36383,7 @@
         <v>4505</v>
       </c>
       <c r="B4505">
-        <v>70.21835550806503</v>
+        <v>70.21835550806502</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
@@ -36391,7 +36391,7 @@
         <v>4506</v>
       </c>
       <c r="B4506">
-        <v>69.26587463241566</v>
+        <v>69.26587463241565</v>
       </c>
     </row>
     <row r="4507" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>57.48383273615225</v>
+        <v>57.48383273615224</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36679,7 +36679,7 @@
         <v>4542</v>
       </c>
       <c r="B4542">
-        <v>42.27696268209237</v>
+        <v>42.27696268209236</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>46.17011835966968</v>
+        <v>46.17011835966967</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36695,7 +36695,7 @@
         <v>4544</v>
       </c>
       <c r="B4544">
-        <v>48.8804393252098</v>
+        <v>48.88043932520979</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36791,7 +36791,7 @@
         <v>4556</v>
       </c>
       <c r="B4556">
-        <v>66.23903694512128</v>
+        <v>66.23903694512127</v>
       </c>
     </row>
     <row r="4557" spans="1:2">
@@ -36863,7 +36863,7 @@
         <v>4565</v>
       </c>
       <c r="B4565">
-        <v>44.73055341776515</v>
+        <v>44.73055341776514</v>
       </c>
     </row>
     <row r="4566" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>54.89542932269525</v>
+        <v>54.89542932269524</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37087,7 +37087,7 @@
         <v>4593</v>
       </c>
       <c r="B4593">
-        <v>57.87127264926255</v>
+        <v>57.87127264926254</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>66.86620896785656</v>
+        <v>66.86620896785655</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37175,7 +37175,7 @@
         <v>4604</v>
       </c>
       <c r="B4604">
-        <v>66.8530207711168</v>
+        <v>66.85302077111679</v>
       </c>
     </row>
     <row r="4605" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>52.54412037951528</v>
+        <v>52.54412037951527</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>60.78820869705892</v>
+        <v>60.78820869705891</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>81.08718804785968</v>
+        <v>81.08718804785967</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -38015,7 +38015,7 @@
         <v>4709</v>
       </c>
       <c r="B4709">
-        <v>62.00591886269681</v>
+        <v>62.0059188626968</v>
       </c>
     </row>
     <row r="4710" spans="1:2">
@@ -38031,7 +38031,7 @@
         <v>4711</v>
       </c>
       <c r="B4711">
-        <v>64.2851323303661</v>
+        <v>64.28513233036608</v>
       </c>
     </row>
     <row r="4712" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>79.26780303985005</v>
+        <v>79.26780303985004</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>85.13742980215947</v>
+        <v>85.13742980215946</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38135,7 +38135,7 @@
         <v>4724</v>
       </c>
       <c r="B4724">
-        <v>81.52239854027178</v>
+        <v>81.52239854027177</v>
       </c>
     </row>
     <row r="4725" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>71.37276232935207</v>
+        <v>71.37276232935206</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>70.89857338879801</v>
+        <v>70.898573388798</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>53.98896060011571</v>
+        <v>53.9889606001157</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>65.68864953451528</v>
+        <v>65.68864953451526</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38495,7 +38495,7 @@
         <v>4769</v>
       </c>
       <c r="B4769">
-        <v>66.56815572153798</v>
+        <v>66.56815572153796</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>39.12820744271488</v>
+        <v>39.12820744271487</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>56.35052702964883</v>
+        <v>56.35052702964882</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>60.66892878432376</v>
+        <v>60.66892878432375</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38871,7 +38871,7 @@
         <v>4816</v>
       </c>
       <c r="B4816">
-        <v>62.06248157315845</v>
+        <v>62.06248157315844</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -38887,7 +38887,7 @@
         <v>4818</v>
       </c>
       <c r="B4818">
-        <v>61.14487615110978</v>
+        <v>61.14487615110977</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38903,7 +38903,7 @@
         <v>4820</v>
       </c>
       <c r="B4820">
-        <v>54.69438259017357</v>
+        <v>54.69438259017356</v>
       </c>
     </row>
     <row r="4821" spans="1:2">
@@ -39103,7 +39103,7 @@
         <v>4845</v>
       </c>
       <c r="B4845">
-        <v>58.19511614698334</v>
+        <v>58.19511614698333</v>
       </c>
     </row>
     <row r="4846" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>57.74378674744487</v>
+        <v>57.74378674744486</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>60.64606924330817</v>
+        <v>60.64606924330816</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39207,7 +39207,7 @@
         <v>4858</v>
       </c>
       <c r="B4858">
-        <v>63.69547340057947</v>
+        <v>63.69547340057946</v>
       </c>
     </row>
     <row r="4859" spans="1:2">
@@ -39223,7 +39223,7 @@
         <v>4860</v>
       </c>
       <c r="B4860">
-        <v>68.3769901721558</v>
+        <v>68.37699017215579</v>
       </c>
     </row>
     <row r="4861" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>68.66713050043053</v>
+        <v>68.66713050043052</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>37.71941495986979</v>
+        <v>37.71941495986978</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>63.60901744417437</v>
+        <v>63.60901744417436</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39751,7 +39751,7 @@
         <v>4926</v>
       </c>
       <c r="B4926">
-        <v>40.23132683223618</v>
+        <v>40.23132683223617</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>48.64862013362868</v>
+        <v>48.64862013362867</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>59.06377870557557</v>
+        <v>59.06377870557556</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39847,7 +39847,7 @@
         <v>4938</v>
       </c>
       <c r="B4938">
-        <v>78.81207757473166</v>
+        <v>78.81207757473165</v>
       </c>
     </row>
     <row r="4939" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>54.66654084150074</v>
+        <v>54.66654084150073</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -40055,7 +40055,7 @@
         <v>4964</v>
       </c>
       <c r="B4964">
-        <v>77.45369331053632</v>
+        <v>77.45369331053631</v>
       </c>
     </row>
     <row r="4965" spans="1:2">
@@ -40127,7 +40127,7 @@
         <v>4973</v>
       </c>
       <c r="B4973">
-        <v>57.80034945790651</v>
+        <v>57.8003494579065</v>
       </c>
     </row>
     <row r="4974" spans="1:2">
@@ -40191,7 +40191,7 @@
         <v>4981</v>
       </c>
       <c r="B4981">
-        <v>80.6382032166305</v>
+        <v>80.63820321663049</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40343,7 +40343,7 @@
         <v>5000</v>
       </c>
       <c r="B5000">
-        <v>69.43878654522585</v>
+        <v>69.43878654522584</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40399,7 +40399,7 @@
         <v>5007</v>
       </c>
       <c r="B5007">
-        <v>87.64963474556453</v>
+        <v>87.64963474556451</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>88.10594635276024</v>
+        <v>88.10594635276023</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>74.13466379769659</v>
+        <v>74.13466379769658</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>84.05980759300171</v>
+        <v>84.05980759300169</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40575,7 +40575,7 @@
         <v>5029</v>
       </c>
       <c r="B5029">
-        <v>87.97289210120799</v>
+        <v>87.97289210120798</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>61.34152681805154</v>
+        <v>61.34152681805153</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40719,7 +40719,7 @@
         <v>5047</v>
       </c>
       <c r="B5047">
-        <v>63.25733219778076</v>
+        <v>63.25733219778075</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40807,7 +40807,7 @@
         <v>5058</v>
       </c>
       <c r="B5058">
-        <v>92.84431890583689</v>
+        <v>92.84431890583686</v>
       </c>
     </row>
     <row r="5059" spans="1:2">
@@ -40823,7 +40823,7 @@
         <v>5060</v>
       </c>
       <c r="B5060">
-        <v>87.48932488741677</v>
+        <v>87.48932488741676</v>
       </c>
     </row>
     <row r="5061" spans="1:2">
@@ -40831,7 +40831,7 @@
         <v>5061</v>
       </c>
       <c r="B5061">
-        <v>83.00797563524614</v>
+        <v>83.00797563524613</v>
       </c>
     </row>
     <row r="5062" spans="1:2">
@@ -40887,7 +40887,7 @@
         <v>5068</v>
       </c>
       <c r="B5068">
-        <v>59.86591413839167</v>
+        <v>59.86591413839166</v>
       </c>
     </row>
     <row r="5069" spans="1:2">
@@ -41087,7 +41087,7 @@
         <v>5093</v>
       </c>
       <c r="B5093">
-        <v>69.66327896084044</v>
+        <v>69.66327896084043</v>
       </c>
     </row>
     <row r="5094" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>80.54471355529753</v>
+        <v>80.54471355529752</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>95.26244804583165</v>
+        <v>95.26244804583162</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41207,7 +41207,7 @@
         <v>5108</v>
       </c>
       <c r="B5108">
-        <v>92.73177962699091</v>
+        <v>92.7317796269909</v>
       </c>
     </row>
     <row r="5109" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>7.971268487653797</v>
+        <v>7.971268487653796</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>85.95070193444471</v>
+        <v>85.95070193444469</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41447,7 +41447,7 @@
         <v>5138</v>
       </c>
       <c r="B5138">
-        <v>4.65915545132647</v>
+        <v>4.659155451326469</v>
       </c>
     </row>
     <row r="5139" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>73.68362746919678</v>
+        <v>73.68362746919676</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>74.9162842578064</v>
+        <v>74.91628425780638</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41751,7 +41751,7 @@
         <v>5176</v>
       </c>
       <c r="B5176">
-        <v>92.5515409382142</v>
+        <v>92.55154093821416</v>
       </c>
     </row>
     <row r="5177" spans="1:2">
@@ -41879,7 +41879,7 @@
         <v>5192</v>
       </c>
       <c r="B5192">
-        <v>71.29392621995217</v>
+        <v>71.29392621995216</v>
       </c>
     </row>
     <row r="5193" spans="1:2">
@@ -41919,7 +41919,7 @@
         <v>5197</v>
       </c>
       <c r="B5197">
-        <v>83.37431443357282</v>
+        <v>83.37431443357281</v>
       </c>
     </row>
     <row r="5198" spans="1:2">
@@ -42127,7 +42127,7 @@
         <v>5223</v>
       </c>
       <c r="B5223">
-        <v>87.99076943456633</v>
+        <v>87.99076943456632</v>
       </c>
     </row>
     <row r="5224" spans="1:2">
@@ -42263,7 +42263,7 @@
         <v>5240</v>
       </c>
       <c r="B5240">
-        <v>57.92461157829892</v>
+        <v>57.92461157829891</v>
       </c>
     </row>
     <row r="5241" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>59.82283269570845</v>
+        <v>59.82283269570844</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>40.98539861471182</v>
+        <v>40.98539861471181</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42631,7 +42631,7 @@
         <v>5286</v>
       </c>
       <c r="B5286">
-        <v>6.069559824884194</v>
+        <v>6.069559824884193</v>
       </c>
     </row>
     <row r="5287" spans="1:2">
@@ -42719,7 +42719,7 @@
         <v>5297</v>
       </c>
       <c r="B5297">
-        <v>42.52167699937459</v>
+        <v>42.52167699937458</v>
       </c>
     </row>
     <row r="5298" spans="1:2">
@@ -42815,7 +42815,7 @@
         <v>5309</v>
       </c>
       <c r="B5309">
-        <v>9.24961505119072</v>
+        <v>9.249615051190718</v>
       </c>
     </row>
     <row r="5310" spans="1:2">
@@ -42831,7 +42831,7 @@
         <v>5311</v>
       </c>
       <c r="B5311">
-        <v>10.64545379412698</v>
+        <v>10.64545379412697</v>
       </c>
     </row>
     <row r="5312" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>27.17794277025986</v>
+        <v>27.17794277025985</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43119,7 +43119,7 @@
         <v>5347</v>
       </c>
       <c r="B5347">
-        <v>49.5377976649272</v>
+        <v>49.53779766492719</v>
       </c>
     </row>
     <row r="5348" spans="1:2">
@@ -43223,7 +43223,7 @@
         <v>5360</v>
       </c>
       <c r="B5360">
-        <v>45.33164211805957</v>
+        <v>45.33164211805956</v>
       </c>
     </row>
     <row r="5361" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>58.18485866063019</v>
+        <v>58.18485866063018</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43327,7 +43327,7 @@
         <v>5373</v>
       </c>
       <c r="B5373">
-        <v>53.9860298897291</v>
+        <v>53.98602988972909</v>
       </c>
     </row>
     <row r="5374" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>40.96517671304419</v>
+        <v>40.96517671304418</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43519,7 +43519,7 @@
         <v>5397</v>
       </c>
       <c r="B5397">
-        <v>56.41177887672905</v>
+        <v>56.41177887672904</v>
       </c>
     </row>
     <row r="5398" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>36.5805409036318</v>
+        <v>36.58054090363179</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43623,7 +43623,7 @@
         <v>5410</v>
       </c>
       <c r="B5410">
-        <v>52.99251906866714</v>
+        <v>52.99251906866713</v>
       </c>
     </row>
     <row r="5411" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>70.64682536658792</v>
+        <v>70.6468253665879</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -43679,7 +43679,7 @@
         <v>5417</v>
       </c>
       <c r="B5417">
-        <v>73.25046847405531</v>
+        <v>73.2504684740553</v>
       </c>
     </row>
     <row r="5418" spans="1:2">
@@ -43695,7 +43695,7 @@
         <v>5419</v>
       </c>
       <c r="B5419">
-        <v>67.40340818172281</v>
+        <v>67.4034081817228</v>
       </c>
     </row>
     <row r="5420" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>53.70350940845956</v>
+        <v>53.70350940845955</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>56.76844633077991</v>
+        <v>56.7684463307799</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43879,7 +43879,7 @@
         <v>5442</v>
       </c>
       <c r="B5442">
-        <v>61.85557341986354</v>
+        <v>61.85557341986353</v>
       </c>
     </row>
     <row r="5443" spans="1:2">
@@ -43959,7 +43959,7 @@
         <v>5452</v>
       </c>
       <c r="B5452">
-        <v>43.22211678177521</v>
+        <v>43.2221167817752</v>
       </c>
     </row>
     <row r="5453" spans="1:2">
@@ -43967,7 +43967,7 @@
         <v>5453</v>
       </c>
       <c r="B5453">
-        <v>43.69894336167722</v>
+        <v>43.69894336167721</v>
       </c>
     </row>
     <row r="5454" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>42.67436701051715</v>
+        <v>42.67436701051714</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -43983,7 +43983,7 @@
         <v>5455</v>
       </c>
       <c r="B5455">
-        <v>44.30765190897683</v>
+        <v>44.30765190897682</v>
       </c>
     </row>
     <row r="5456" spans="1:2">
@@ -44047,7 +44047,7 @@
         <v>5463</v>
       </c>
       <c r="B5463">
-        <v>67.75773106746438</v>
+        <v>67.75773106746436</v>
       </c>
     </row>
     <row r="5464" spans="1:2">
@@ -44071,7 +44071,7 @@
         <v>5466</v>
       </c>
       <c r="B5466">
-        <v>65.71180214656953</v>
+        <v>65.71180214656951</v>
       </c>
     </row>
     <row r="5467" spans="1:2">
@@ -44079,7 +44079,7 @@
         <v>5467</v>
       </c>
       <c r="B5467">
-        <v>63.47361862431283</v>
+        <v>63.47361862431282</v>
       </c>
     </row>
     <row r="5468" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>72.30795201372042</v>
+        <v>72.30795201372041</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44375,7 +44375,7 @@
         <v>5504</v>
       </c>
       <c r="B5504">
-        <v>58.36040821278834</v>
+        <v>58.36040821278833</v>
       </c>
     </row>
     <row r="5505" spans="1:2">
@@ -44463,7 +44463,7 @@
         <v>5515</v>
       </c>
       <c r="B5515">
-        <v>71.6098567996291</v>
+        <v>71.60985679962909</v>
       </c>
     </row>
     <row r="5516" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>57.06884414540779</v>
+        <v>57.06884414540778</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44599,7 +44599,7 @@
         <v>5532</v>
       </c>
       <c r="B5532">
-        <v>71.3012529959187</v>
+        <v>71.30125299591869</v>
       </c>
     </row>
     <row r="5533" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>73.99955804887371</v>
+        <v>73.99955804887369</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44663,7 +44663,7 @@
         <v>5540</v>
       </c>
       <c r="B5540">
-        <v>69.67851865485083</v>
+        <v>69.67851865485082</v>
       </c>
     </row>
     <row r="5541" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>69.35467515713005</v>
+        <v>69.35467515713003</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>73.70355629982575</v>
+        <v>73.70355629982573</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>44.28713693627054</v>
+        <v>44.28713693627053</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>62.61492048103509</v>
+        <v>62.61492048103508</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45127,7 +45127,7 @@
         <v>5598</v>
       </c>
       <c r="B5598">
-        <v>12.71655751724284</v>
+        <v>12.71655751724283</v>
       </c>
     </row>
     <row r="5599" spans="1:2">
@@ -45143,7 +45143,7 @@
         <v>5600</v>
       </c>
       <c r="B5600">
-        <v>20.99727971461915</v>
+        <v>20.99727971461914</v>
       </c>
     </row>
     <row r="5601" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>41.72950598187298</v>
+        <v>41.72950598187297</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45223,7 +45223,7 @@
         <v>5610</v>
       </c>
       <c r="B5610">
-        <v>46.79435967201835</v>
+        <v>46.79435967201834</v>
       </c>
     </row>
     <row r="5611" spans="1:2">
@@ -45247,7 +45247,7 @@
         <v>5613</v>
       </c>
       <c r="B5613">
-        <v>36.36894361371831</v>
+        <v>36.3689436137183</v>
       </c>
     </row>
     <row r="5614" spans="1:2">
@@ -45303,7 +45303,7 @@
         <v>5620</v>
       </c>
       <c r="B5620">
-        <v>12.72262408774313</v>
+        <v>12.72262408774312</v>
       </c>
     </row>
     <row r="5621" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>45.16341934186796</v>
+        <v>45.16341934186795</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45535,7 +45535,7 @@
         <v>5649</v>
       </c>
       <c r="B5649">
-        <v>28.52686083990643</v>
+        <v>28.52686083990642</v>
       </c>
     </row>
     <row r="5650" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>52.10363460840728</v>
+        <v>52.10363460840727</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45615,7 +45615,7 @@
         <v>5659</v>
       </c>
       <c r="B5659">
-        <v>50.34022616878196</v>
+        <v>50.34022616878195</v>
       </c>
     </row>
     <row r="5660" spans="1:2">
@@ -45623,7 +45623,7 @@
         <v>5660</v>
       </c>
       <c r="B5660">
-        <v>47.16362918073164</v>
+        <v>47.16362918073163</v>
       </c>
     </row>
     <row r="5661" spans="1:2">
@@ -45775,7 +45775,7 @@
         <v>5679</v>
       </c>
       <c r="B5679">
-        <v>62.31950487406445</v>
+        <v>62.31950487406444</v>
       </c>
     </row>
     <row r="5680" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>62.30954045874997</v>
+        <v>62.30954045874996</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45799,7 +45799,7 @@
         <v>5682</v>
       </c>
       <c r="B5682">
-        <v>60.46729590972475</v>
+        <v>60.46729590972474</v>
       </c>
     </row>
     <row r="5683" spans="1:2">
@@ -45911,7 +45911,7 @@
         <v>5696</v>
       </c>
       <c r="B5696">
-        <v>52.94152470794006</v>
+        <v>52.94152470794005</v>
       </c>
     </row>
     <row r="5697" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>55.18879343239526</v>
+        <v>55.18879343239525</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>36.83785727557646</v>
+        <v>36.83785727557645</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46375,7 +46375,7 @@
         <v>5754</v>
       </c>
       <c r="B5754">
-        <v>75.10033287008572</v>
+        <v>75.10033287008571</v>
       </c>
     </row>
     <row r="5755" spans="1:2">
@@ -46383,7 +46383,7 @@
         <v>5755</v>
       </c>
       <c r="B5755">
-        <v>72.20860093161423</v>
+        <v>72.20860093161421</v>
       </c>
     </row>
     <row r="5756" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>42.45309837632784</v>
+        <v>42.45309837632783</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>49.86398573095728</v>
+        <v>49.86398573095727</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>60.7709175057779</v>
+        <v>60.77091750577789</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>69.76995681891317</v>
+        <v>69.76995681891316</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46559,7 +46559,7 @@
         <v>5777</v>
       </c>
       <c r="B5777">
-        <v>70.48329172701489</v>
+        <v>70.48329172701487</v>
       </c>
     </row>
     <row r="5778" spans="1:2">
@@ -46583,7 +46583,7 @@
         <v>5780</v>
       </c>
       <c r="B5780">
-        <v>58.14119107586965</v>
+        <v>58.14119107586964</v>
       </c>
     </row>
     <row r="5781" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>20.73254864539636</v>
+        <v>20.73254864539635</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>55.3719628315586</v>
+        <v>55.37196283155859</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46759,7 +46759,7 @@
         <v>5802</v>
       </c>
       <c r="B5802">
-        <v>51.45917139439098</v>
+        <v>51.45917139439097</v>
       </c>
     </row>
     <row r="5803" spans="1:2">
@@ -46839,7 +46839,7 @@
         <v>5812</v>
       </c>
       <c r="B5812">
-        <v>7.188768814428005</v>
+        <v>7.188768814428004</v>
       </c>
     </row>
     <row r="5813" spans="1:2">
@@ -46855,7 +46855,7 @@
         <v>5814</v>
       </c>
       <c r="B5814">
-        <v>3.126276690712169</v>
+        <v>3.126276690712168</v>
       </c>
     </row>
     <row r="5815" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>6.267968918057925</v>
+        <v>6.267968918057924</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>32.48663156457147</v>
+        <v>32.48663156457146</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>46.69500858991215</v>
+        <v>46.69500858991214</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -47055,7 +47055,7 @@
         <v>5839</v>
       </c>
       <c r="B5839">
-        <v>42.97242025683574</v>
+        <v>42.97242025683573</v>
       </c>
     </row>
     <row r="5840" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>72.70799398149316</v>
+        <v>72.70799398149315</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47247,7 +47247,7 @@
         <v>5863</v>
       </c>
       <c r="B5863">
-        <v>51.24757410447749</v>
+        <v>51.24757410447748</v>
       </c>
     </row>
     <row r="5864" spans="1:2">
@@ -47263,7 +47263,7 @@
         <v>5865</v>
       </c>
       <c r="B5865">
-        <v>63.31330876616507</v>
+        <v>63.31330876616506</v>
       </c>
     </row>
     <row r="5866" spans="1:2">
@@ -47279,7 +47279,7 @@
         <v>5867</v>
       </c>
       <c r="B5867">
-        <v>67.81868984350594</v>
+        <v>67.81868984350592</v>
       </c>
     </row>
     <row r="5868" spans="1:2">
@@ -47359,7 +47359,7 @@
         <v>5877</v>
       </c>
       <c r="B5877">
-        <v>58.64585940444449</v>
+        <v>58.64585940444448</v>
       </c>
     </row>
     <row r="5878" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>40.30283616566955</v>
+        <v>40.30283616566954</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47639,7 +47639,7 @@
         <v>5912</v>
       </c>
       <c r="B5912">
-        <v>41.65037680143441</v>
+        <v>41.6503768014344</v>
       </c>
     </row>
     <row r="5913" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>61.48923462153686</v>
+        <v>61.48923462153685</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -47711,7 +47711,7 @@
         <v>5921</v>
       </c>
       <c r="B5921">
-        <v>63.12486408830583</v>
+        <v>63.12486408830582</v>
       </c>
     </row>
     <row r="5922" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>60.68387540729548</v>
+        <v>60.68387540729547</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47735,7 +47735,7 @@
         <v>5924</v>
       </c>
       <c r="B5924">
-        <v>53.31900020573588</v>
+        <v>53.31900020573587</v>
       </c>
     </row>
     <row r="5925" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>26.72289136853039</v>
+        <v>26.72289136853038</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>57.17317743517123</v>
+        <v>57.17317743517122</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>56.25117594754264</v>
+        <v>56.25117594754263</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48279,7 +48279,7 @@
         <v>5992</v>
       </c>
       <c r="B5992">
-        <v>70.84288989145236</v>
+        <v>70.84288989145234</v>
       </c>
     </row>
     <row r="5993" spans="1:2">
@@ -48319,7 +48319,7 @@
         <v>5997</v>
       </c>
       <c r="B5997">
-        <v>56.21307671251666</v>
+        <v>56.21307671251665</v>
       </c>
     </row>
     <row r="5998" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>58.22295789565617</v>
+        <v>58.22295789565616</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>67.28354212691032</v>
+        <v>67.28354212691031</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>45.84920557233551</v>
+        <v>45.8492055723355</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48639,7 +48639,7 @@
         <v>6037</v>
       </c>
       <c r="B6037">
-        <v>60.78058885005373</v>
+        <v>60.78058885005372</v>
       </c>
     </row>
     <row r="6038" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>28.69777986965373</v>
+        <v>28.69777986965372</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48767,7 +48767,7 @@
         <v>6053</v>
       </c>
       <c r="B6053">
-        <v>27.23239536924314</v>
+        <v>27.23239536924313</v>
       </c>
     </row>
     <row r="6054" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>38.49898392270897</v>
+        <v>38.49898392270896</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48879,7 +48879,7 @@
         <v>6067</v>
       </c>
       <c r="B6067">
-        <v>55.07156501693072</v>
+        <v>55.07156501693071</v>
       </c>
     </row>
     <row r="6068" spans="1:2">
@@ -48983,7 +48983,7 @@
         <v>6080</v>
       </c>
       <c r="B6080">
-        <v>29.09984402759323</v>
+        <v>29.09984402759322</v>
       </c>
     </row>
     <row r="6081" spans="1:2">
@@ -48991,7 +48991,7 @@
         <v>6081</v>
       </c>
       <c r="B6081">
-        <v>34.91677661715134</v>
+        <v>34.91677661715133</v>
       </c>
     </row>
     <row r="6082" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>62.21253394495306</v>
+        <v>62.21253394495305</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>57.33114272500969</v>
+        <v>57.33114272500968</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>42.86544932772435</v>
+        <v>42.86544932772434</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>52.33281616064045</v>
+        <v>52.33281616064044</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49271,7 +49271,7 @@
         <v>6116</v>
       </c>
       <c r="B6116">
-        <v>43.49232827942097</v>
+        <v>43.49232827942096</v>
       </c>
     </row>
     <row r="6117" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>49.72155320616786</v>
+        <v>49.72155320616785</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>51.35718267293683</v>
+        <v>51.35718267293682</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49447,7 +49447,7 @@
         <v>6138</v>
       </c>
       <c r="B6138">
-        <v>51.02601239924951</v>
+        <v>51.0260123992495</v>
       </c>
     </row>
     <row r="6139" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>45.35713929842311</v>
+        <v>45.3571392984231</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>55.57066499577099</v>
+        <v>55.57066499577098</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>64.38448341247229</v>
+        <v>64.38448341247228</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49647,7 +49647,7 @@
         <v>6163</v>
       </c>
       <c r="B6163">
-        <v>60.97430880660888</v>
+        <v>60.97430880660887</v>
       </c>
     </row>
     <row r="6164" spans="1:2">
@@ -49831,7 +49831,7 @@
         <v>6186</v>
       </c>
       <c r="B6186">
-        <v>60.85239125452576</v>
+        <v>60.85239125452575</v>
       </c>
     </row>
     <row r="6187" spans="1:2">
@@ -50015,7 +50015,7 @@
         <v>6209</v>
       </c>
       <c r="B6209">
-        <v>59.6238374604574</v>
+        <v>59.62383746045739</v>
       </c>
     </row>
     <row r="6210" spans="1:2">
@@ -50023,7 +50023,7 @@
         <v>6210</v>
       </c>
       <c r="B6210">
-        <v>58.83166644295578</v>
+        <v>58.83166644295577</v>
       </c>
     </row>
     <row r="6211" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>58.73759063954549</v>
+        <v>58.73759063954548</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50047,7 +50047,7 @@
         <v>6213</v>
       </c>
       <c r="B6213">
-        <v>52.93654250028282</v>
+        <v>52.93654250028281</v>
       </c>
     </row>
     <row r="6214" spans="1:2">
@@ -50135,7 +50135,7 @@
         <v>6224</v>
       </c>
       <c r="B6224">
-        <v>44.004616455001</v>
+        <v>44.00461645500099</v>
       </c>
     </row>
     <row r="6225" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>47.3497292902816</v>
+        <v>47.34972929028159</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>53.47403478518773</v>
+        <v>53.47403478518772</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>65.18720498736572</v>
+        <v>65.1872049873657</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>70.82765019744197</v>
+        <v>70.82765019744195</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>69.06717246820327</v>
+        <v>69.06717246820325</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50239,7 +50239,7 @@
         <v>6237</v>
       </c>
       <c r="B6237">
-        <v>63.73093499625749</v>
+        <v>63.73093499625748</v>
       </c>
     </row>
     <row r="6238" spans="1:2">
@@ -50295,7 +50295,7 @@
         <v>6244</v>
       </c>
       <c r="B6244">
-        <v>49.97359429941662</v>
+        <v>49.97359429941661</v>
       </c>
     </row>
     <row r="6245" spans="1:2">
@@ -50327,7 +50327,7 @@
         <v>6248</v>
       </c>
       <c r="B6248">
-        <v>53.38523426047334</v>
+        <v>53.38523426047333</v>
       </c>
     </row>
     <row r="6249" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>61.31866727703596</v>
+        <v>61.31866727703595</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50375,7 +50375,7 @@
         <v>6254</v>
       </c>
       <c r="B6254">
-        <v>65.4541927035862</v>
+        <v>65.45419270358619</v>
       </c>
     </row>
     <row r="6255" spans="1:2">
@@ -50423,7 +50423,7 @@
         <v>6260</v>
       </c>
       <c r="B6260">
-        <v>60.39578657629138</v>
+        <v>60.39578657629137</v>
       </c>
     </row>
     <row r="6261" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>46.46817160598827</v>
+        <v>46.46817160598826</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50607,7 +50607,7 @@
         <v>6283</v>
       </c>
       <c r="B6283">
-        <v>40.27470134595806</v>
+        <v>40.27470134595805</v>
       </c>
     </row>
     <row r="6284" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>22.72692637059068</v>
+        <v>22.72692637059067</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>23.38067993653254</v>
+        <v>23.38067993653253</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -51111,7 +51111,7 @@
         <v>6346</v>
       </c>
       <c r="B6346">
-        <v>7.418946808192626</v>
+        <v>7.418946808192625</v>
       </c>
     </row>
     <row r="6347" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>17.45191143862126</v>
+        <v>17.45191143862125</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51135,7 +51135,7 @@
         <v>6349</v>
       </c>
       <c r="B6349">
-        <v>22.76379470725428</v>
+        <v>22.76379470725427</v>
       </c>
     </row>
     <row r="6350" spans="1:2">
@@ -51199,7 +51199,7 @@
         <v>6357</v>
       </c>
       <c r="B6357">
-        <v>25.3932866803316</v>
+        <v>25.39328668033159</v>
       </c>
     </row>
     <row r="6358" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>30.64145630515964</v>
+        <v>30.64145630515963</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -51343,7 +51343,7 @@
         <v>6375</v>
       </c>
       <c r="B6375">
-        <v>34.1703246816809</v>
+        <v>34.17032468168089</v>
       </c>
     </row>
     <row r="6376" spans="1:2">
@@ -51695,7 +51695,7 @@
         <v>6419</v>
       </c>
       <c r="B6419">
-        <v>16.61539877297018</v>
+        <v>16.61539877297017</v>
       </c>
     </row>
     <row r="6420" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>30.1496831022859</v>
+        <v>30.14968310228589</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51775,7 +51775,7 @@
         <v>6429</v>
       </c>
       <c r="B6429">
-        <v>29.45276017234922</v>
+        <v>29.45276017234921</v>
       </c>
     </row>
     <row r="6430" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>43.52573837782836</v>
+        <v>43.52573837782835</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>22.32682578861021</v>
+        <v>22.3268257886102</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52311,7 +52311,7 @@
         <v>6496</v>
       </c>
       <c r="B6496">
-        <v>43.06942677063265</v>
+        <v>43.06942677063264</v>
       </c>
     </row>
     <row r="6497" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>30.95211160614066</v>
+        <v>30.95211160614065</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>48.28960811126853</v>
+        <v>48.28960811126852</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52535,7 +52535,7 @@
         <v>6524</v>
       </c>
       <c r="B6524">
-        <v>45.16371241290662</v>
+        <v>45.16371241290661</v>
       </c>
     </row>
     <row r="6525" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>40.48102335717565</v>
+        <v>40.48102335717564</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52647,7 +52647,7 @@
         <v>6538</v>
       </c>
       <c r="B6538">
-        <v>46.90865737709627</v>
+        <v>46.90865737709626</v>
       </c>
     </row>
     <row r="6539" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>49.75730787288455</v>
+        <v>49.75730787288454</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>6.398619987093152</v>
+        <v>6.398619987093151</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>19.97176553613537</v>
+        <v>19.97176553613536</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -53495,7 +53495,7 @@
         <v>6644</v>
       </c>
       <c r="B6644">
-        <v>10.20866071810611</v>
+        <v>10.2086607181061</v>
       </c>
     </row>
     <row r="6645" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>6.42517222319587</v>
+        <v>6.425172223195869</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>18.15663005818633</v>
+        <v>18.15663005818632</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53823,7 +53823,7 @@
         <v>6685</v>
       </c>
       <c r="B6685">
-        <v>23.8051054147219</v>
+        <v>23.80510541472189</v>
       </c>
     </row>
     <row r="6686" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>30.81847121251109</v>
+        <v>30.81847121251108</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>38.0787200532686</v>
+        <v>38.07872005326859</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54823,7 +54823,7 @@
         <v>6810</v>
       </c>
       <c r="B6810">
-        <v>2.090689660629599</v>
+        <v>2.090689660629598</v>
       </c>
     </row>
     <row r="6811" spans="1:2">
@@ -54831,7 +54831,7 @@
         <v>6811</v>
       </c>
       <c r="B6811">
-        <v>0.8360320291476733</v>
+        <v>0.8360320291476732</v>
       </c>
     </row>
     <row r="6812" spans="1:2">
@@ -55191,7 +55191,7 @@
         <v>6856</v>
       </c>
       <c r="B6856">
-        <v>4.229220237610276</v>
+        <v>4.229220237610275</v>
       </c>
     </row>
     <row r="6857" spans="1:2">
@@ -55215,7 +55215,7 @@
         <v>6859</v>
       </c>
       <c r="B6859">
-        <v>1.587603915663534</v>
+        <v>1.587603915663533</v>
       </c>
     </row>
     <row r="6860" spans="1:2">
@@ -55599,7 +55599,7 @@
         <v>6907</v>
       </c>
       <c r="B6907">
-        <v>4.34208189459876</v>
+        <v>4.342081894598759</v>
       </c>
     </row>
     <row r="6908" spans="1:2">
@@ -55799,7 +55799,7 @@
         <v>6932</v>
       </c>
       <c r="B6932">
-        <v>5.697769905238411</v>
+        <v>5.69776990523841</v>
       </c>
     </row>
     <row r="6933" spans="1:2">
@@ -56287,7 +56287,7 @@
         <v>6993</v>
       </c>
       <c r="B6993">
-        <v>4.428977457561849</v>
+        <v>4.428977457561848</v>
       </c>
     </row>
     <row r="6994" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>29.85543977946991</v>
+        <v>29.8554397794699</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56367,7 +56367,7 @@
         <v>7003</v>
       </c>
       <c r="B7003">
-        <v>26.68063052475543</v>
+        <v>26.68063052475542</v>
       </c>
     </row>
     <row r="7004" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>5.002781244156897</v>
+        <v>5.002781244156896</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>32.06607462409244</v>
+        <v>32.06607462409243</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>29.20306364740976</v>
+        <v>29.20306364740975</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -57039,7 +57039,7 @@
         <v>7087</v>
       </c>
       <c r="B7087">
-        <v>5.305318477367004</v>
+        <v>5.305318477367003</v>
       </c>
     </row>
     <row r="7088" spans="1:2">
@@ -57143,7 +57143,7 @@
         <v>7100</v>
       </c>
       <c r="B7100">
-        <v>33.66096721648748</v>
+        <v>33.66096721648747</v>
       </c>
     </row>
     <row r="7101" spans="1:2">
@@ -57239,7 +57239,7 @@
         <v>7112</v>
       </c>
       <c r="B7112">
-        <v>20.08884741608058</v>
+        <v>20.08884741608057</v>
       </c>
     </row>
     <row r="7113" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>28.82098693430696</v>
+        <v>28.82098693430695</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>19.93275778088955</v>
+        <v>19.93275778088954</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>28.3176374254061</v>
+        <v>28.31763742540609</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
@@ -57527,7 +57527,7 @@
         <v>7148</v>
       </c>
       <c r="B7148">
-        <v>17.10699613322072</v>
+        <v>17.10699613322071</v>
       </c>
     </row>
     <row r="7149" spans="1:2">
@@ -57871,7 +57871,7 @@
         <v>7191</v>
       </c>
       <c r="B7191">
-        <v>7.787512946413133</v>
+        <v>7.787512946413132</v>
       </c>
     </row>
     <row r="7192" spans="1:2">
@@ -57911,7 +57911,7 @@
         <v>7196</v>
       </c>
       <c r="B7196">
-        <v>4.726385947595382</v>
+        <v>4.726385947595381</v>
       </c>
     </row>
     <row r="7197" spans="1:2">
@@ -58087,7 +58087,7 @@
         <v>7218</v>
       </c>
       <c r="B7218">
-        <v>9.664926020077711</v>
+        <v>9.66492602007771</v>
       </c>
     </row>
     <row r="7219" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>3.340335777350416</v>
+        <v>3.340335777350415</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>7.883229947639929</v>
+        <v>7.883229947639928</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>5.171883233464493</v>
+        <v>5.171883233464492</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -59991,7 +59991,7 @@
         <v>7456</v>
       </c>
       <c r="B7456">
-        <v>17.18849918907244</v>
+        <v>17.18849918907243</v>
       </c>
     </row>
     <row r="7457" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>3.621596053153709</v>
+        <v>3.621596053153708</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>0.6426959956531704</v>
+        <v>0.6426959956531703</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>8.964222473742302</v>
+        <v>8.9642224737423</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>4.457903569077724</v>
+        <v>4.457903569077723</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>4.04927461987221</v>
+        <v>4.049274619872209</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>28.50186188030862</v>
+        <v>28.50186188030861</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>20.28922008521334</v>
+        <v>20.28922008521333</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>30.94712939848342</v>
+        <v>30.94712939848341</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>35.1157718524024</v>
+        <v>35.11577185240239</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63295,7 +63295,7 @@
         <v>7869</v>
       </c>
       <c r="B7869">
-        <v>27.06971163568222</v>
+        <v>27.06971163568221</v>
       </c>
     </row>
     <row r="7870" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>26.59555200223204</v>
+        <v>26.59555200223203</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>5.976568384316949</v>
+        <v>5.976568384316948</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>5.01383002231443</v>
+        <v>5.013830022314429</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
